--- a/biology/Médecine/1527_en_santé_et_médecine/1527_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1527_en_santé_et_médecine/1527_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1527 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les frères de Saint-Jean de Jérusalem fondent un hôpital à Civitavecchia dans le Latium, en Italie[1].
-Création de l'apothicairerie de l'hôtel-Dieu de Lyon[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les frères de Saint-Jean de Jérusalem fondent un hôpital à Civitavecchia dans le Latium, en Italie.
+Création de l'apothicairerie de l'hôtel-Dieu de Lyon.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>« La peste éclate en Italie et afflige surtout la ville de Rome[3]. »
-1527-1528 : Paracelse séjourne à Bâle, en Suisse, où il a le temps de soigner Johann Froben, de devenir médecin municipal et d'obtenir une chaire à la faculté de médecine, avant de quitter la ville, craignant d'être arrêté pour ses provocations, et surtout pour avoir montré son dédain de la médecine scolastique en brûlant en public, le 24 juin 1527, les œuvres d'Hippocrate et d'Avicenne[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>« La peste éclate en Italie et afflige surtout la ville de Rome. »
+1527-1528 : Paracelse séjourne à Bâle, en Suisse, où il a le temps de soigner Johann Froben, de devenir médecin municipal et d'obtenir une chaire à la faculté de médecine, avant de quitter la ville, craignant d'être arrêté pour ses provocations, et surtout pour avoir montré son dédain de la médecine scolastique en brûlant en public, le 24 juin 1527, les œuvres d'Hippocrate et d'Avicenne.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Novembre : sous la forme d'une lettre ouverte qui sera « réimprimée ailleurs, encore et encore, en période d'épidémie », Martin Luther adresse de Wittenberg à Johann Hess (de), à Breslau, ses conseils sur la conduite à tenir en cas de peste[5].
-Parution à Londres de la traduction anglaise, par Laurence Andrew, du Liber de arte distillandi (Kleines Destillierbuch) de Jérôme Brunschwig[6].
-Jacques de Béthencourt publie en latin, sous le titre de Nova penitentialis quadragesima[7] (« Nouveau carême de pénitence »), le premier traité consacré en France à la syphilis[8], où il introduit le terme de « maladie vénérienne » (« morbus venereus ») pour en indiquer l'origine sexuelle[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Novembre : sous la forme d'une lettre ouverte qui sera « réimprimée ailleurs, encore et encore, en période d'épidémie », Martin Luther adresse de Wittenberg à Johann Hess (de), à Breslau, ses conseils sur la conduite à tenir en cas de peste.
+Parution à Londres de la traduction anglaise, par Laurence Andrew, du Liber de arte distillandi (Kleines Destillierbuch) de Jérôme Brunschwig.
+Jacques de Béthencourt publie en latin, sous le titre de Nova penitentialis quadragesima (« Nouveau carême de pénitence »), le premier traité consacré en France à la syphilis, où il introduit le terme de « maladie vénérienne » (« morbus venereus ») pour en indiquer l'origine sexuelle.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Louis Duret (mort en 1586), né à Bâgé, alors en Savoie, « l'un des plus célèbres médecins de son temps[10] ».
-Pedro López (es) (mort en 1597), médecin espagnol[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Louis Duret (mort en 1586), né à Bâgé, alors en Savoie, « l'un des plus célèbres médecins de son temps ».
+Pedro López (es) (mort en 1597), médecin espagnol.</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1527_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1527_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Scipion Barbut d'Alcamo (né à une date inconnue), apothicaire à Palerme en Sicile[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Scipion Barbut d'Alcamo (né à une date inconnue), apothicaire à Palerme en Sicile.</t>
         </is>
       </c>
     </row>
